--- a/Excel/Sauce-checkout.xlsx
+++ b/Excel/Sauce-checkout.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="18">
   <si>
     <t>firstname</t>
   </si>

--- a/Excel/Sauce-checkout.xlsx
+++ b/Excel/Sauce-checkout.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="18">
   <si>
     <t>firstname</t>
   </si>

--- a/Excel/Sauce-checkout.xlsx
+++ b/Excel/Sauce-checkout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon Project\Web-Based\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon Project\Demo Web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{88DDC1D4-9E2E-42B8-AD1E-684A9B74F768}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{24E245EC-0908-4BEA-89CE-00E2DC0277A4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="15500" windowWidth="25820" xWindow="-110" xr2:uid="{49208B96-F4C3-4753-BAD3-E87AE93BE6CF}" yWindow="-110"/>
   </bookViews>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
   <si>
     <t>firstname</t>
   </si>
@@ -74,19 +73,19 @@
     <t>$15.99</t>
   </si>
   <si>
+    <t>$49.99</t>
+  </si>
+  <si>
+    <t>$7.99</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>$49.99</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>$7.99</t>
   </si>
 </sst>
 </file>
@@ -96,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,7 +105,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFE2231A"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -130,14 +135,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="8" xfId="0">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="8" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -455,7 +461,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,57 +509,57 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="E4" s="2">
+        <v>7.99</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E5" s="1">
         <v>49.9</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E6" s="2">
-        <v>7.99</v>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Sauce-checkout.xlsx
+++ b/Excel/Sauce-checkout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon Project\Demo Web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{24E245EC-0908-4BEA-89CE-00E2DC0277A4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8C4A22CE-E322-44A7-9BE2-65CF41490070}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="15500" windowWidth="25820" xWindow="-110" xr2:uid="{49208B96-F4C3-4753-BAD3-E87AE93BE6CF}" yWindow="-110"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>firstname</t>
   </si>
@@ -73,19 +73,19 @@
     <t>$15.99</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>$49.99</t>
   </si>
   <si>
     <t>$7.99</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +113,12 @@
     <font>
       <sz val="11"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,15 +141,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="8" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="8" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -461,7 +468,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H7" sqref="F2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -526,40 +533,40 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>7.99</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E5" s="1">
-        <v>49.9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
+      <c r="E6" s="4">
+        <v>49.9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
